--- a/linprog/空白输出模板.xlsx
+++ b/linprog/空白输出模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\LangCore\XM_LScq\w2excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\LangCore\XM_LScq\db\linprog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA2FC3C-4399-464B-9FFD-84CA0E00A9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DC0B88-608E-43B0-8024-1706CD21F6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="1185" windowWidth="28800" windowHeight="15240" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPCI" sheetId="1" r:id="rId1"/>
@@ -589,34 +589,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="5" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -631,41 +653,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -974,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M33"/>
+  <dimension ref="B1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -1001,63 +1001,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="9"/>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="31"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F3" s="36"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="34">
+      <c r="J3" s="43"/>
+      <c r="K3" s="44">
         <v>45866</v>
       </c>
-      <c r="L3" s="31"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F4" s="37"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="34" t="s">
+      <c r="J4" s="43"/>
+      <c r="K4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="31"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="55" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -1066,109 +1066,109 @@
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="34" t="s">
+      <c r="J5" s="43"/>
+      <c r="K5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="31"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F6" s="36"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="31"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F7" s="36"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="32" t="s">
+      <c r="J7" s="47"/>
+      <c r="K7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="41"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="37"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12" spans="2:12" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -1191,63 +1191,63 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="50"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="11"/>
       <c r="J13" s="12"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
       <c r="K14" s="11"/>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="52"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="50"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
       <c r="K15" s="11"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="52"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="50"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="52"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1256,11 +1256,11 @@
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="52"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1269,11 +1269,11 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="52"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1282,11 +1282,11 @@
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="52"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -1294,112 +1294,154 @@
       <c r="K20" s="11"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="33" t="s">
+    <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="15">
-        <f>SUM(L21:L21)</f>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="15">
+        <f>SUM(L27:L27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" spans="2:13" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="59"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="44" t="s">
+    <row r="29" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="43"/>
+    </row>
+    <row r="30" spans="2:13" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="38"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="16">
-        <f>L22</f>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="16">
+        <f>L28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="38"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J26" s="39"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J27" s="18"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="20"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J28" s="18"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="20"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J29" s="18"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="20"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="18"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="20"/>
-    </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J31" s="19"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="17"/>
       <c r="L31" s="18"/>
       <c r="M31" s="20"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J32" s="18"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="17"/>
       <c r="L32" s="18"/>
       <c r="M32" s="20"/>
@@ -1410,14 +1452,56 @@
       <c r="L33" s="18"/>
       <c r="M33" s="20"/>
     </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="18"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="18"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="18"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J37" s="19"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="20"/>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J38" s="18"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="20"/>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J39" s="18"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="J31:J32"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="K7:L8"/>
-    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="F30:K30"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K2:L2"/>
@@ -1428,12 +1512,6 @@
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="G10:L10"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="F5:F8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
